--- a/HRMS/EmpQualificationDetails.xlsx
+++ b/HRMS/EmpQualificationDetails.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Get EmpUniqueId  (MstEmployeeRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में कर्मचारियों की योग्यता का विवरण  है</t>
   </si>
 </sst>
 </file>
@@ -197,12 +197,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -215,6 +209,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,269 +536,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
